--- a/QA테스트케이스/S1P4113002-3.xlsx
+++ b/QA테스트케이스/S1P4113002-3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\EPIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\webmobile-final\QA테스트케이스\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -76,18 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>영화 검색 시 최신 영화순으로 정열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글자를 검색한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신개봉작부터 나열됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 영화관의 영화 클릭 시 예매로 연결</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,6 +97,18 @@
   </si>
   <si>
     <t xml:space="preserve">빠른 시간 순서대로 나열됨 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">영화 검색 시 연관검색어 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글자를 입력한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자가 포함된 영화들이 함께 뜬다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,12 +197,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -335,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,9 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -677,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J19"/>
+  <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -692,41 +683,41 @@
   <sheetData>
     <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10" ht="249" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
@@ -738,11 +729,11 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,11 +751,11 @@
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
@@ -773,16 +764,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
@@ -791,16 +782,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
@@ -809,16 +800,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
@@ -828,87 +819,23 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="2">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="2">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="2">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="2">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
+    <row r="17" ht="104.4" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="8">
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:J6"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
